--- a/data-raw/DefaultPrescriptionsBySpecies.xlsx
+++ b/data-raw/DefaultPrescriptionsBySpecies.xlsx
@@ -11,7 +11,7 @@
     <sheet name="ManagementParameters" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ManagementParameters!$A$1:$N$28</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ManagementParameters!$A$1:$M$28</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t xml:space="preserve">thinning</t>
   </si>
   <si>
-    <t xml:space="preserve">thinningBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thinningHB</t>
+    <t xml:space="preserve">thinningMetric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thinningThreshold</t>
   </si>
   <si>
     <t xml:space="preserve">thinningPerc</t>
@@ -64,9 +64,6 @@
     <t xml:space="preserve">plantingDensity</t>
   </si>
   <si>
-    <t xml:space="preserve">finalPreviousStage</t>
-  </si>
-  <si>
     <t xml:space="preserve">Abies/Picea/Pseudotsuga spp.</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
     <t xml:space="preserve">above-intermediate</t>
   </si>
   <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Betula/Acer spp.</t>
   </si>
   <si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t xml:space="preserve">Juniperus thurifera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HB</t>
   </si>
   <si>
     <t xml:space="preserve">Cupressus spp.</t>
@@ -333,10 +336,10 @@
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.06"/>
@@ -346,12 +349,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="17.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="986" min="15" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="985" min="14" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,9 +396,7 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="AKX1" s="0"/>
       <c r="AKY1" s="0"/>
       <c r="AKZ1" s="0"/>
       <c r="ALA1" s="0"/>
@@ -438,18 +438,21 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>47</v>
       </c>
       <c r="G2" s="1" t="n">
@@ -464,12 +467,15 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>25</v>
       </c>
       <c r="G3" s="1" t="n">
@@ -489,7 +495,10 @@
       <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>40</v>
       </c>
       <c r="G4" s="1" t="n">
@@ -512,9 +521,6 @@
       </c>
       <c r="M4" s="1" t="n">
         <v>600</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -530,7 +536,10 @@
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="n">
@@ -554,9 +563,6 @@
       <c r="M5" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="N5" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -571,7 +577,10 @@
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>35</v>
       </c>
       <c r="G6" s="1" t="n">
@@ -597,7 +606,10 @@
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>25</v>
       </c>
       <c r="G7" s="1" t="n">
@@ -620,9 +632,6 @@
       </c>
       <c r="M7" s="1" t="n">
         <v>200</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,6 +647,9 @@
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F8" s="1" t="n">
         <v>17</v>
       </c>
@@ -662,13 +674,10 @@
       <c r="M8" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="N8" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>61</v>
@@ -679,6 +688,9 @@
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="1" t="n">
         <v>17</v>
       </c>
@@ -703,13 +715,10 @@
       <c r="M9" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="N9" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>148</v>
@@ -718,9 +727,12 @@
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="n">
         <v>35</v>
       </c>
       <c r="G10" s="1" t="n">
@@ -730,26 +742,26 @@
         <v>35</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>149</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="n">
         <v>30</v>
       </c>
       <c r="G11" s="1" t="n">
@@ -758,7 +770,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>150</v>
@@ -769,6 +781,9 @@
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" s="1" t="n">
         <v>25</v>
       </c>
@@ -793,13 +808,10 @@
       <c r="M12" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="N12" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>151</v>
@@ -808,9 +820,12 @@
         <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="n">
         <v>28</v>
       </c>
       <c r="G13" s="1" t="n">
@@ -834,13 +849,10 @@
       <c r="M13" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="N13" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>152</v>
@@ -851,6 +863,9 @@
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F14" s="1" t="n">
         <v>17</v>
       </c>
@@ -875,13 +890,10 @@
       <c r="M14" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="N14" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>153</v>
@@ -892,7 +904,10 @@
       <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="n">
         <v>40</v>
       </c>
       <c r="G15" s="1" t="n">
@@ -902,26 +917,26 @@
         <v>50</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>154</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="n">
         <v>35</v>
       </c>
       <c r="G16" s="1" t="n">
@@ -930,7 +945,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>34</v>
@@ -941,6 +956,9 @@
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="1" t="n">
         <v>17</v>
       </c>
@@ -965,13 +983,10 @@
       <c r="M17" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="N17" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>204</v>
@@ -982,6 +997,9 @@
       <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F18" s="1" t="n">
         <v>17</v>
       </c>
@@ -1006,13 +1024,10 @@
       <c r="M18" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="N18" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>120</v>
@@ -1023,6 +1038,9 @@
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F19" s="1" t="n">
         <v>17</v>
       </c>
@@ -1047,24 +1065,24 @@
       <c r="M19" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="N19" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>168</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1" t="n">
         <v>30</v>
       </c>
       <c r="G20" s="1" t="n">
@@ -1073,18 +1091,21 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>166</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1" t="n">
         <v>25</v>
       </c>
       <c r="G21" s="1" t="n">
@@ -1093,18 +1114,21 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>175</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1" t="n">
         <v>25</v>
       </c>
       <c r="G22" s="1" t="n">
@@ -1113,10 +1137,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
@@ -1124,7 +1148,10 @@
       <c r="D23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="n">
         <v>30</v>
       </c>
       <c r="G23" s="1" t="n">
@@ -1139,18 +1166,21 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1" t="n">
         <v>25</v>
       </c>
       <c r="G24" s="1" t="n">
@@ -1159,7 +1189,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>158</v>
@@ -1170,7 +1200,10 @@
       <c r="D25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="1" t="n">
         <v>20</v>
       </c>
       <c r="G25" s="1" t="n">
@@ -1194,13 +1227,10 @@
       <c r="M25" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="N25" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>160</v>
@@ -1211,7 +1241,10 @@
       <c r="D26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="1" t="n">
         <v>20</v>
       </c>
       <c r="G26" s="1" t="n">
@@ -1235,13 +1268,10 @@
       <c r="M26" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="N26" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>186</v>
@@ -1252,7 +1282,10 @@
       <c r="D27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="G27" s="1" t="n">
@@ -1276,24 +1309,24 @@
       <c r="M27" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="N27" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="1" t="n">
         <v>25</v>
       </c>
       <c r="G28" s="1" t="n">
@@ -1301,7 +1334,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N28"/>
+  <autoFilter ref="A1:M28"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data-raw/DefaultPrescriptionsBySpecies.xlsx
+++ b/data-raw/DefaultPrescriptionsBySpecies.xlsx
@@ -11,7 +11,7 @@
     <sheet name="ManagementParameters" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ManagementParameters!$A$1:$M$28</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ManagementParameters!$A$1:$S$28</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="65">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">targetTreeSpecies</t>
+  </si>
+  <si>
     <t xml:space="preserve">thinning</t>
   </si>
   <si>
@@ -46,12 +49,27 @@
     <t xml:space="preserve">thinningPerc</t>
   </si>
   <si>
+    <t xml:space="preserve">minThinningInterval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yearsSinceThinning</t>
+  </si>
+  <si>
     <t xml:space="preserve">finalMeanDBH</t>
   </si>
   <si>
     <t xml:space="preserve">finalPerc</t>
   </si>
   <si>
+    <t xml:space="preserve">finalPreviousStage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finalYearsBetweenCuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finalYearsToCut</t>
+  </si>
+  <si>
     <t xml:space="preserve">plantingSpecies</t>
   </si>
   <si>
@@ -64,6 +82,9 @@
     <t xml:space="preserve">plantingDensity</t>
   </si>
   <si>
+    <t xml:space="preserve">understoryMaximumCover</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abies/Picea/Pseudotsuga spp.</t>
   </si>
   <si>
@@ -73,7 +94,10 @@
     <t xml:space="preserve">irregular</t>
   </si>
   <si>
-    <t xml:space="preserve">above-intermediate</t>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">above-systematic</t>
   </si>
   <si>
     <t xml:space="preserve">BA</t>
@@ -85,7 +109,7 @@
     <t xml:space="preserve">3/4/5/6/7/8/26</t>
   </si>
   <si>
-    <t xml:space="preserve">intermediate</t>
+    <t xml:space="preserve">systematic</t>
   </si>
   <si>
     <t xml:space="preserve">Castanea sativa</t>
@@ -94,7 +118,23 @@
     <t xml:space="preserve">regular</t>
   </si>
   <si>
-    <t xml:space="preserve">below-intermediate</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">below-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">systematic</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Eucalyptus spp.</t>
@@ -203,7 +243,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -238,6 +278,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -282,7 +327,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -301,6 +346,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -336,7 +385,7 @@
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -344,16 +393,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="985" min="14" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="19.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="21.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="1" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="991" min="20" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -396,12 +445,27 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AKX1" s="0"/>
-      <c r="AKY1" s="0"/>
-      <c r="AKZ1" s="0"/>
-      <c r="ALA1" s="0"/>
-      <c r="ALB1" s="0"/>
-      <c r="ALC1" s="0"/>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="ALD1" s="0"/>
       <c r="ALE1" s="0"/>
       <c r="ALF1" s="0"/>
@@ -438,903 +502,1305 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="H4" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>30</v>
-      </c>
       <c r="I4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="M4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P4" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M4" s="1" t="n">
+      <c r="Q4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" s="1" t="n">
         <v>600</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="H5" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="I5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="L5" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="M5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P5" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M5" s="1" t="n">
+      <c r="Q5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>25</v>
-      </c>
       <c r="H6" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
+      <c r="L6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P7" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1" t="n">
+      <c r="Q7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <v>30</v>
-      </c>
       <c r="H8" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="1" t="n">
+      <c r="I8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P8" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="K8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M8" s="1" t="n">
+      <c r="Q8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <v>30</v>
-      </c>
       <c r="H9" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="1" t="n">
+      <c r="I9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P9" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="K9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M9" s="1" t="n">
+      <c r="Q9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>148</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="n">
+      <c r="I10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>34</v>
+      <c r="L10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>149</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>150</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="I12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="L12" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="M12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M12" s="1" t="n">
+      <c r="Q12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" s="1" t="n">
         <v>600</v>
+      </c>
+      <c r="T12" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>151</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="G13" s="1" t="n">
-        <v>25</v>
-      </c>
       <c r="H13" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="1" t="n">
+      <c r="L13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P13" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="K13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M13" s="1" t="n">
+      <c r="Q13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" s="1" t="n">
         <v>280</v>
+      </c>
+      <c r="T13" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>152</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="H14" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H14" s="1" t="n">
-        <v>25</v>
-      </c>
       <c r="I14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L14" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="M14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P14" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="K14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M14" s="1" t="n">
+      <c r="Q14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="T14" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>153</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G15" s="1" t="n">
-        <v>30</v>
-      </c>
       <c r="H15" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>40</v>
+      <c r="L15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>154</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="H16" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="G17" s="1" t="n">
-        <v>30</v>
-      </c>
       <c r="H17" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="1" t="n">
+      <c r="I17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="L17" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="M17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" s="1" t="n">
         <v>300</v>
+      </c>
+      <c r="T17" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>204</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="1" t="n">
-        <v>30</v>
-      </c>
       <c r="H18" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="1" t="n">
+      <c r="I18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P18" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="K18" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="L18" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M18" s="1" t="n">
+      <c r="Q18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" s="1" t="n">
         <v>300</v>
+      </c>
+      <c r="T18" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>120</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="G19" s="1" t="n">
-        <v>30</v>
-      </c>
       <c r="H19" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="1" t="n">
+      <c r="I19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P19" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="K19" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M19" s="1" t="n">
+      <c r="Q19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" s="1" t="n">
         <v>300</v>
+      </c>
+      <c r="T19" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>168</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G20" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H20" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>166</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>175</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G22" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H22" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>28</v>
+      <c r="L23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G24" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H24" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>158</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="H25" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H25" s="1" t="n">
-        <v>25</v>
-      </c>
       <c r="I25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L25" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="J25" s="1" t="n">
+      <c r="M25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P25" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="K25" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="L25" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M25" s="1" t="n">
+      <c r="Q25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="T25" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>160</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="H26" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H26" s="1" t="n">
-        <v>25</v>
-      </c>
       <c r="I26" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L26" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="J26" s="1" t="n">
+      <c r="M26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P26" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="K26" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="L26" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M26" s="1" t="n">
+      <c r="Q26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="T26" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>186</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P27" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="K27" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="L27" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M27" s="1" t="n">
+      <c r="Q27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="T27" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="H28" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M28"/>
+  <autoFilter ref="A1:S28"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data-raw/DefaultPrescriptionsBySpecies.xlsx
+++ b/data-raw/DefaultPrescriptionsBySpecies.xlsx
@@ -118,23 +118,7 @@
     <t xml:space="preserve">regular</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">below-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">systematic</t>
-    </r>
+    <t xml:space="preserve">below-systematic</t>
   </si>
   <si>
     <t xml:space="preserve">Eucalyptus spp.</t>
@@ -243,7 +227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -278,11 +262,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -327,7 +306,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -346,10 +325,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -384,8 +359,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T30" activeCellId="0" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -551,7 +526,7 @@
       <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -701,7 +676,7 @@
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1413,7 +1388,7 @@
       <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1451,7 +1426,7 @@
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1571,7 +1546,7 @@
       <c r="D24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -1777,7 +1752,7 @@
       <c r="D28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -1797,6 +1772,9 @@
       </c>
       <c r="N28" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="T28" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
